--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_0_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_0_31.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55380.6906057165</v>
+        <v>3879504.071597298</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55380.6906057165</v>
+        <v>3879504.071597298</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494094117.913486</v>
+        <v>56917539.45525148</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13054.56149533054</v>
+        <v>1227892.61432428</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26109.12299066109</v>
+        <v>2455785.228648559</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39163.68448599162</v>
+        <v>3683677.84297284</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54818.05907631641</v>
+        <v>4707888.194567147</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69247.77407437368</v>
+        <v>5860926.168984505</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83677.489072431</v>
+        <v>7013964.143401849</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98107.20407048833</v>
+        <v>8167002.117819196</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>112536.9190685442</v>
+        <v>9320040.092236707</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128191.2936588667</v>
+        <v>10344250.4438313</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>142621.0086569179</v>
+        <v>11497288.41824935</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157037.0857305006</v>
+        <v>12651407.55956753</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>171453.1628040833</v>
+        <v>13805526.70088572</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>185869.239877666</v>
+        <v>14959645.84220392</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>200298.9548757203</v>
+        <v>16112683.81662162</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>217760.8961620506</v>
+        <v>16905382.62694126</v>
       </c>
     </row>
   </sheetData>
